--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_7_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2757972.239204983</v>
+        <v>2755402.445834459</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205919</v>
+        <v>9964927.035287924</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431054</v>
+        <v>430763.7823717228</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9122799.152013339</v>
+        <v>9122957.578688117</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>346.6999128968758</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>121.0066975960212</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>78.73282967914187</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>325.255748559886</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.13651949521359</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>325.255748559886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127574</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.53032011471583</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>110.34694068951</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>124.6368679942804</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>64.44601915224106</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
         <v>283.5630920045443</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>102.1854574632506</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>172.5112693098296</v>
+        <v>181.3384883584599</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876452</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>231.4710960909096</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>25.84325785123182</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>64.44601915224108</v>
+        <v>111.3598553131479</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.20583238347314</v>
+        <v>115.783531170199</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2770,7 +2770,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2807,7 +2807,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H29" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>76.43132743191605</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>64.44601915224106</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H32" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T32" t="n">
         <v>199.1970568374742</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T33" t="n">
         <v>188.3907690366107</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S34" t="n">
-        <v>172.5112693098193</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3244,7 +3244,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>223.1919800689189</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>155.8760184598854</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>89.53408223744735</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
         <v>140.4539897919539</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3557,7 +3557,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876452</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>128.7104509524665</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>102.1854574632515</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>18.92873806063739</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>59.73562477865408</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428155</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.37259901119292</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1206.080506218543</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>837.1179892781316</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224075</v>
@@ -4340,7 +4340,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2574.920103547494</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2356.285436519557</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2356.285436519557</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2356.285436519557</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W2" t="n">
-        <v>2356.285436519557</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X2" t="n">
-        <v>1982.819678258477</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="Y2" t="n">
-        <v>1592.680346282665</v>
+        <v>1309.714918859355</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>437.5354894428046</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>619.1839542730444</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>619.1839542730444</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>619.1839542730444</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>619.1839542730444</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>619.1839542730444</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y4" t="n">
-        <v>619.1839542730444</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036444</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2368.607930856721</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036444</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2368.607930856721</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C11" t="n">
         <v>1949.298676890959</v>
@@ -5027,40 +5027,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H11" t="n">
         <v>93.84834815160704</v>
       </c>
       <c r="I11" t="n">
-        <v>93.84834815160727</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507208</v>
+        <v>424.1437450015209</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384034</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883218</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q11" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580352</v>
@@ -5118,28 +5118,28 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4963299034533</v>
+        <v>138.7667273763485</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668126</v>
+        <v>469.2754699397072</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.737405310565</v>
+        <v>960.0078027834585</v>
       </c>
       <c r="M12" t="n">
-        <v>1654.755759562693</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="N12" t="n">
-        <v>2276.85172296203</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="O12" t="n">
-        <v>2323.251080710519</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.7042115721531</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7680286442462</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6513892319105</v>
+        <v>383.6341586955698</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7382956495174</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F13" t="n">
-        <v>93.84834815160704</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160704</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H13" t="n">
         <v>93.84834815160704</v>
@@ -5197,52 +5197,52 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2246.242309074627</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>2026.563526789009</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>1737.487313103736</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1482.802824897849</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W13" t="n">
-        <v>1193.385654860888</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X13" t="n">
-        <v>965.3961039628709</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y13" t="n">
-        <v>744.6035248193408</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5267,61 +5267,61 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507205</v>
+        <v>424.1437450015209</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384032</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.737405310565</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>1281.571598885105</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N15" t="n">
-        <v>1903.667562284443</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.0957149476028</v>
+        <v>550.8483535209909</v>
       </c>
       <c r="C16" t="n">
-        <v>326.1595320196959</v>
+        <v>550.8483535209909</v>
       </c>
       <c r="D16" t="n">
-        <v>326.1595320196959</v>
+        <v>550.8483535209909</v>
       </c>
       <c r="E16" t="n">
-        <v>326.1595320196959</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F16" t="n">
-        <v>326.1595320196959</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G16" t="n">
-        <v>158.9453371942748</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160725</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507207</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384034</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883218</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.951912946813</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>424.3570907149663</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>915.0894235587183</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1507.107777810847</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.203741210184</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.812354695766</v>
+        <v>2201.632234562885</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149475992</v>
       </c>
       <c r="C19" t="n">
-        <v>402.9352599385978</v>
+        <v>391.8780811463359</v>
       </c>
       <c r="D19" t="n">
-        <v>402.9352599385978</v>
+        <v>241.7614417340002</v>
       </c>
       <c r="E19" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="F19" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2255.15869195203</v>
+        <v>2178.382964033125</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747507</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819386</v>
       </c>
       <c r="X19" t="n">
-        <v>974.3124868402746</v>
+        <v>897.536758921369</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778389</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5738,64 +5738,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160725</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507207</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384034</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883218</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034533</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0050724668126</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.737405310565</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M21" t="n">
-        <v>1062.737405310565</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N21" t="n">
-        <v>1684.833368709902</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.709843710097</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.3922759648281</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C22" t="n">
-        <v>632.4560930369212</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D22" t="n">
-        <v>632.4560930369212</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E22" t="n">
-        <v>632.4560930369212</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F22" t="n">
-        <v>485.5661455390108</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3519507135896</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520201</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2429.412499335697</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2209.733717050079</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.924529079463</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1721.240040873576</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1431.822870836615</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>1203.833319938598</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.0407407950678</v>
+        <v>1099.422008959557</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5975,40 +5975,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8483481516068</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946813</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.53409905282</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580352</v>
@@ -6023,7 +6023,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
         <v>3468.466124132384</v>
@@ -6032,7 +6032,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160703</v>
+        <v>266.763024966447</v>
       </c>
       <c r="L24" t="n">
-        <v>584.580680995359</v>
+        <v>757.4953578101982</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.599035247487</v>
+        <v>1349.513712062326</v>
       </c>
       <c r="N24" t="n">
-        <v>1798.694998646824</v>
+        <v>1971.609675461662</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.57147364702</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196959</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0625429770282</v>
+        <v>382.611012611087</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0625429770282</v>
+        <v>382.611012611087</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0625429770282</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6212,46 +6212,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
@@ -6303,28 +6303,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K27" t="n">
-        <v>424.3570907149663</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L27" t="n">
-        <v>915.0894235587183</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>1507.107777810847</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.203741210184</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1099.422008959557</v>
+        <v>559.79111798976</v>
       </c>
       <c r="C28" t="n">
-        <v>930.48582603165</v>
+        <v>390.8549350618531</v>
       </c>
       <c r="D28" t="n">
-        <v>780.3691866193143</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E28" t="n">
-        <v>632.4560930369212</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F28" t="n">
-        <v>485.5661455390108</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3519507135896</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2429.412499335697</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2209.733717050079</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1920.657503364806</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1920.657503364806</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1631.240333327845</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>1403.250782429827</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y28" t="n">
-        <v>1182.458203286297</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6443,46 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160725</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507207</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384034</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883218</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946813</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6543,25 +6543,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K30" t="n">
-        <v>424.3570907149663</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L30" t="n">
-        <v>424.3570907149663</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M30" t="n">
-        <v>734.6951238849103</v>
+        <v>915.089423558717</v>
       </c>
       <c r="N30" t="n">
-        <v>1356.791087284247</v>
+        <v>1537.185386958053</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284443</v>
+        <v>2084.061861958247</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476028</v>
+        <v>943.8778449891475</v>
       </c>
       <c r="C31" t="n">
-        <v>326.1595320196959</v>
+        <v>774.9416620612407</v>
       </c>
       <c r="D31" t="n">
-        <v>326.1595320196959</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E31" t="n">
-        <v>326.1595320196959</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F31" t="n">
-        <v>326.1595320196959</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G31" t="n">
-        <v>158.9453371942748</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
         <v>93.84834815160703</v>
@@ -6619,52 +6619,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213727</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778425</v>
+        <v>1125.526309819387</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D32" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E32" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L32" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259444</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.95191294679</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U32" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V32" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W32" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X32" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="33">
@@ -6753,61 +6753,61 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C33" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D33" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E33" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F33" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G33" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K33" t="n">
-        <v>424.3570907149644</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L33" t="n">
-        <v>424.3570907149644</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="M33" t="n">
-        <v>1016.37544496709</v>
+        <v>1016.375444967093</v>
       </c>
       <c r="N33" t="n">
-        <v>1638.471408366424</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O33" t="n">
-        <v>2185.347883366616</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695767</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695767</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S33" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U33" t="n">
         <v>2016.877442379908</v>
@@ -6819,7 +6819,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y33" t="n">
         <v>1111.876178449477</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.8714428665048</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="C34" t="n">
-        <v>402.9352599385979</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D34" t="n">
-        <v>402.9352599385979</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E34" t="n">
-        <v>402.9352599385979</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F34" t="n">
-        <v>402.9352599385979</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131767</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2255.158691952031</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.40369598114</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.719207775253</v>
+        <v>1444.181523548175</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.302037738292</v>
+        <v>1154.764353511215</v>
       </c>
       <c r="X34" t="n">
-        <v>974.3124868402747</v>
+        <v>926.7748026131975</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.5199076967446</v>
+        <v>705.9822234696674</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
@@ -6923,10 +6923,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H35" t="n">
         <v>93.84834815160703</v>
@@ -6947,7 +6947,7 @@
         <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O35" t="n">
         <v>3654.445485610258</v>
@@ -7017,25 +7017,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L36" t="n">
-        <v>584.5806809953583</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.599035247486</v>
+        <v>915.089423558717</v>
       </c>
       <c r="N36" t="n">
-        <v>1798.694998646822</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284444</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.095714947596</v>
+        <v>1005.305464128091</v>
       </c>
       <c r="C37" t="n">
-        <v>326.1595320196891</v>
+        <v>847.854940431237</v>
       </c>
       <c r="D37" t="n">
-        <v>326.1595320196891</v>
+        <v>697.7383010189012</v>
       </c>
       <c r="E37" t="n">
-        <v>326.1595320196891</v>
+        <v>549.8252074365081</v>
       </c>
       <c r="F37" t="n">
-        <v>326.1595320196891</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G37" t="n">
         <v>235.7210651131766</v>
@@ -7102,43 +7102,43 @@
         <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931021</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946051</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782255</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294192</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033122</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747504</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062231</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856344</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819383</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213658</v>
+        <v>1186.953928958331</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778357</v>
+        <v>1186.953928958331</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7160,7 +7160,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963563</v>
       </c>
       <c r="G38" t="n">
         <v>380.2757138127629</v>
@@ -7187,10 +7187,10 @@
         <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q38" t="n">
         <v>4566.333620403613</v>
@@ -7205,19 +7205,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K39" t="n">
-        <v>424.3570907149658</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="L39" t="n">
-        <v>424.3570907149658</v>
+        <v>916.1284561332395</v>
       </c>
       <c r="M39" t="n">
-        <v>734.6951238849133</v>
+        <v>1508.146810385367</v>
       </c>
       <c r="N39" t="n">
-        <v>1356.791087284249</v>
+        <v>1508.146810385367</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284444</v>
+        <v>2055.023285385561</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.5128849845607</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>615.5767020566539</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D40" t="n">
-        <v>485.566145539011</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E40" t="n">
-        <v>485.566145539011</v>
+        <v>197.0659819528712</v>
       </c>
       <c r="F40" t="n">
-        <v>485.566145539011</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
@@ -7369,13 +7369,13 @@
         <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1414.943479856348</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>1186.953928958331</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>966.1613498148005</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
         <v>93.84834815160703</v>
@@ -7485,31 +7485,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K42" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L42" t="n">
-        <v>584.5806809953583</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="M42" t="n">
-        <v>1176.599035247486</v>
+        <v>1165.062459293462</v>
       </c>
       <c r="N42" t="n">
-        <v>1798.694998646822</v>
+        <v>1787.158422692798</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.571473647016</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>746.1252502501684</v>
+        <v>723.0852658456174</v>
       </c>
       <c r="C43" t="n">
-        <v>577.1890673222615</v>
+        <v>554.1490829177105</v>
       </c>
       <c r="D43" t="n">
-        <v>427.0724279099258</v>
+        <v>404.0324435053748</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9524904749385</v>
+        <v>404.0324435053748</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0625429770282</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160703</v>
@@ -7591,28 +7591,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2209.733717050076</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1920.657503364803</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1665.973015158916</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1376.555845121956</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>1148.566294223938</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="Y43" t="n">
-        <v>927.7737150804081</v>
+        <v>904.7337306758571</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.807711655511</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715099</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108349</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510105</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.805338720497</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399038</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556113</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148067</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436023</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118415</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459573</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955891</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596214</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.28428657842</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570209</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226638</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956524</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695444</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K45" t="n">
-        <v>184.735208331694</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0608145474527</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0608145474527</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.658778102059</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.568508341346</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.191657836414</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.453318211297</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8852858437062</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9491029157994</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9491029157994</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9491029157994</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9491029157994</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7530036306793</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="I46" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074694</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834095</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674452</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383437</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683895</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591202</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614143</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958341</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752454</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715493</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>916.3263298174761</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.533750673946</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142005</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>51.31264782908374</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>51.31264782909216</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>51.31264782908215</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>51.31264782909176</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.312647829084</v>
+        <v>51.31264782909182</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>51.31264782908272</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>51.31264782911194</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O35" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10835,13 +10835,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>143.3016600672215</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>38.26853232870239</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>55.19511218765693</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.00797063971282</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.06136363537719</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>8.827219048629303</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>54.71435545751083</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>199.8663975378053</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>84.16945386597128</v>
+        <v>37.25561770506442</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.62614779846416</v>
+        <v>64.04844901173828</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>72.18414558629631</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>76.00797063971282</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>8.827219048639819</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>28.94566325490908</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>11.37080263874248</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>76.00797063971957</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>19.9050220657459</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>43.23559055967972</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>127.5052245859318</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>85.68542324427716</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194234</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0.4319777332161152</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771333.2212019769</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771333.2212019769</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771333.221201977</v>
+        <v>771333.2212019769</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771333.2212019769</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>771333.2212019769</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771333.2212019771</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>771333.2212019771</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>771333.2212019769</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771333.2212019771</v>
+        <v>771333.221201977</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>771058.8774605921</v>
+        <v>771333.221201977</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914267</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914266</v>
-      </c>
-      <c r="C2" t="n">
-        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
@@ -26323,37 +26323,37 @@
         <v>645346.3816948474</v>
       </c>
       <c r="F2" t="n">
+        <v>645346.3816948474</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645346.3816948474</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645346.3816948477</v>
+      </c>
+      <c r="I2" t="n">
+        <v>645346.3816948477</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645346.3816948476</v>
+      </c>
+      <c r="K2" t="n">
+        <v>645346.3816948475</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645346.3816948475</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645346.3816948474</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645346.3816948474</v>
+      </c>
+      <c r="O2" t="n">
         <v>645346.3816948473</v>
       </c>
-      <c r="G2" t="n">
-        <v>645346.3816948471</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645346.3816948471</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645346.3816948474</v>
-      </c>
-      <c r="J2" t="n">
-        <v>645346.3816948474</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645346.3816948471</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645346.3816948471</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645346.3816948475</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>645346.3816948473</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645346.3816948471</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520048</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545136</v>
+        <v>936509.6654545123</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.282840905875976e-09</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.21139014</v>
+        <v>124307.2113901373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855015</v>
+        <v>5781.971894855135</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855005</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.97189485505</v>
+        <v>5781.971894855133</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855044</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855019</v>
+        <v>5781.971894855127</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855001</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855006</v>
+        <v>5781.971894855158</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855408</v>
+        <v>5781.971894855118</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855118</v>
+        <v>5781.971894855116</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.97189485517</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="O4" t="n">
         <v>5781.971894855116</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5781.971894855116</v>
       </c>
     </row>
     <row r="5">
@@ -26491,10 +26491,10 @@
         <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
         <v>100930.0394572385</v>
@@ -26509,7 +26509,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-217058.0473142589</v>
+        <v>-217058.0473142587</v>
       </c>
       <c r="C6" t="n">
         <v>372909.8319002856</v>
@@ -26528,40 +26528,40 @@
         <v>372909.8319002856</v>
       </c>
       <c r="E6" t="n">
-        <v>-397875.2951117599</v>
+        <v>-397911.192093623</v>
       </c>
       <c r="F6" t="n">
-        <v>538634.3703427536</v>
+        <v>538598.4733608894</v>
       </c>
       <c r="G6" t="n">
-        <v>538634.3703427536</v>
+        <v>538598.4733608894</v>
       </c>
       <c r="H6" t="n">
-        <v>538634.3703427536</v>
+        <v>538598.4733608897</v>
       </c>
       <c r="I6" t="n">
-        <v>538634.3703427538</v>
+        <v>538598.4733608897</v>
       </c>
       <c r="J6" t="n">
-        <v>362211.1511501609</v>
+        <v>362175.2541682968</v>
       </c>
       <c r="K6" t="n">
-        <v>538634.3703427536</v>
+        <v>538598.4733608895</v>
       </c>
       <c r="L6" t="n">
-        <v>538634.3703427572</v>
+        <v>538598.4733608895</v>
       </c>
       <c r="M6" t="n">
-        <v>414327.1589526137</v>
+        <v>414291.2619707522</v>
       </c>
       <c r="N6" t="n">
-        <v>538634.3703427536</v>
+        <v>538598.4733608894</v>
       </c>
       <c r="O6" t="n">
-        <v>538634.3703427535</v>
+        <v>538598.4733608892</v>
       </c>
       <c r="P6" t="n">
-        <v>532890.9440727117</v>
+        <v>538598.4733608892</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,28 +26744,28 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="L3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26777,7 +26777,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844993006</v>
+        <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,10 +26987,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.510546556922298e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405325</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405325</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>36.03392876660473</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>53.40901521295029</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>146.3022757789424</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689005</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>23.98522015752701</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.5945811832555</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>35.43826180874038</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>23.98522015752701</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30174,7 +30174,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735821</v>
+        <v>172.2097268936783</v>
       </c>
       <c r="K12" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927647</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>189.4642825742312</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>363.178673896302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927647</v>
+        <v>392.682598689168</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286956</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R16" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927647</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>571.493833823821</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>256.8217267553756</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735821</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927647</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426213</v>
+        <v>543.1616833066655</v>
       </c>
       <c r="P21" t="n">
-        <v>459.3304791170268</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>311.4532008332654</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>344.3187317059937</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H25" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R25" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927647</v>
+        <v>218.5059968446715</v>
       </c>
       <c r="O27" t="n">
-        <v>571.493833823821</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H28" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R28" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T28" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M30" t="n">
-        <v>455.6067946997396</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P30" t="n">
-        <v>557.796143198246</v>
+        <v>339.8966443015646</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286956</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H31" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R31" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T31" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830408</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P32" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>471.688653684821</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927615</v>
+        <v>439.5128616623697</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
-        <v>506.1607420902403</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H34" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M34" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R34" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T34" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>541.821974196083</v>
       </c>
       <c r="O36" t="n">
-        <v>248.6291370076985</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
         <v>557.7961431982453</v>
@@ -33758,7 +33758,7 @@
         <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S36" t="n">
         <v>54.2575834086216</v>
@@ -33968,7 +33968,7 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,25 +33977,25 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>455.6067946997431</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982453</v>
+        <v>369.2285398295302</v>
       </c>
       <c r="Q39" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S39" t="n">
         <v>54.2575834086216</v>
@@ -34205,16 +34205,16 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>740.1323715504301</v>
@@ -34223,16 +34223,16 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>648.4209452361731</v>
       </c>
       <c r="P42" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
         <v>54.2575834086216</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471741</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>418.8742322669827</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047517</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607207</v>
+        <v>333.6317139898119</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>418.5673812694955</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069154</v>
+        <v>45.37210022701159</v>
       </c>
       <c r="K12" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094314</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>46.86803812978678</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607207</v>
+        <v>333.6317139898119</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>221.0446399742837</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094314</v>
+        <v>261.3408866058347</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426741</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134837</v>
+        <v>605.157040442575</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094314</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>428.8975893793765</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>122.8473193410454</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>796.0449487554531</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404118</v>
+        <v>418.5673812695028</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069154</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094314</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981769</v>
+        <v>400.5654388622211</v>
       </c>
       <c r="P21" t="n">
-        <v>325.3560717026966</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136686</v>
+        <v>178.6700086136759</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>173.6117618589065</v>
       </c>
       <c r="L24" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>210.3443242916634</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M26" t="n">
-        <v>779.6000841311419</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N26" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404118</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094314</v>
+        <v>87.16428476133815</v>
       </c>
       <c r="O27" t="n">
-        <v>428.8975893793765</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404118</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M30" t="n">
-        <v>313.4727607777212</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839158</v>
+        <v>205.9222368872343</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426741</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664365</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020552</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870057</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
-        <v>418.5673812695212</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>333.847214710462</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094282</v>
+        <v>308.1711495790364</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981739</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
-        <v>372.18633467591</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P34" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,10 +37315,10 @@
         <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O35" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
         <v>553.8443926134828</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>410.4802621127497</v>
       </c>
       <c r="O36" t="n">
-        <v>106.0328925632541</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
         <v>423.8217357839151</v>
@@ -37406,7 +37406,7 @@
         <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883388</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
@@ -37555,13 +37555,13 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
         <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R38" t="n">
         <v>127.3573607845841</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>313.4727607777248</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839151</v>
+        <v>235.2541324152</v>
       </c>
       <c r="Q39" t="n">
         <v>232.8901757426737</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>597.9983376284117</v>
@@ -37871,16 +37871,16 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>505.8247007917287</v>
       </c>
       <c r="P42" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.8049092728151</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>276.7401983449644</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
